--- a/QLearningObservations.xlsx
+++ b/QLearningObservations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\CSC Kes\Pong-QLearning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19E8F76F-5D72-4705-A6A3-6B3F24097BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B1D31A6-A1B9-4BFF-AD0F-ED25149E349F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
-    <t>Average IN Minutes</t>
-  </si>
-  <si>
     <t>Minutes of Training</t>
   </si>
   <si>
@@ -58,6 +55,9 @@
   </si>
   <si>
     <t>Average (milliseconds)</t>
+  </si>
+  <si>
+    <t>Average (Minutes)</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +1574,7 @@
   <dimension ref="B1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -1588,7 +1588,7 @@
     <row r="1" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="8">
         <v>1</v>
@@ -1611,7 +1611,7 @@
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="9">
         <v>4246</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9">
         <v>27014</v>
@@ -1657,7 +1657,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="9">
         <v>12384</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="9">
         <v>16162</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="7" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="11">
         <v>10917</v>
@@ -1727,7 +1727,7 @@
     <row r="10" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="8">
         <v>1</v>
@@ -1750,30 +1750,30 @@
     </row>
     <row r="12" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="13">
-        <f>AVERAGE(C3:C7)</f>
+        <f t="shared" ref="C12:H12" si="0">AVERAGE(C3:C7)</f>
         <v>14144.6</v>
       </c>
       <c r="D12" s="13">
-        <f>AVERAGE(D3:D7)</f>
+        <f t="shared" si="0"/>
         <v>27745.8</v>
       </c>
       <c r="E12" s="13">
-        <f>AVERAGE(E3:E7)</f>
+        <f t="shared" si="0"/>
         <v>249967</v>
       </c>
       <c r="F12" s="13">
-        <f>AVERAGE(F3:F7)</f>
+        <f t="shared" si="0"/>
         <v>533343.6</v>
       </c>
       <c r="G12" s="13">
-        <f>AVERAGE(G3:G7)</f>
+        <f t="shared" si="0"/>
         <v>1388249.4</v>
       </c>
       <c r="H12" s="13">
-        <f>AVERAGE(H3:H7)</f>
+        <f t="shared" si="0"/>
         <v>2227506.4</v>
       </c>
     </row>
@@ -1788,30 +1788,30 @@
     </row>
     <row r="14" spans="2:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="4" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C14" s="13">
         <f>C12/60000</f>
         <v>0.23574333333333333</v>
       </c>
       <c r="D14" s="13">
-        <f t="shared" ref="D14:H14" si="0">D12/60000</f>
+        <f t="shared" ref="D14:H14" si="1">D12/60000</f>
         <v>0.46243000000000001</v>
       </c>
       <c r="E14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1661166666666665</v>
       </c>
       <c r="F14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.8890599999999989</v>
       </c>
       <c r="G14" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23.13749</v>
       </c>
       <c r="H14" s="14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>37.125106666666667</v>
       </c>
     </row>
